--- a/重制权限管理模块.xlsx
+++ b/重制权限管理模块.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,50 +32,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UserName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PassWord</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所属组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>默认仓库</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChangKu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BeiZhu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>电话</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Tel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,26 +56,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>是否禁用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>登陆名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LoginName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>说明：ID为自动产生。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -116,91 +76,177 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>软件权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认仓库：在权限内选择仓库，只有一个不用选。多个可选。用户可以自行更改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明：ID为自动产生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件权限，为权限表中的权限数字，8位组成一个权限,不进行分隔，连续输入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库列表，是指可以操作的仓库。默认有读取权限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库权限，是指是否可以修改与添加的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用，是否禁用这个权限组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BianMa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Tel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_QQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_BeiZhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_Rule</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>组表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>软件权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SoftRule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认仓库：在权限内选择仓库，只有一个不用选。多个可选。用户可以自行更改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CkRule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库列表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CkList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OtherRule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明：ID为自动产生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件权限，为权限表中的权限数字，8位组成一个权限,不进行分隔，连续输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库列表，是指可以操作的仓库。默认有读取权限。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仓库权限，是指是否可以修改与添加的权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用，是否禁用这个权限组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BianMa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分类ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限作用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
+    <t>表示每个角色有哪些权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CangKu_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CangKu_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1号仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2号仓库</t>
+  </si>
+  <si>
+    <t>3号仓库</t>
+  </si>
+  <si>
+    <t>4号仓库</t>
+  </si>
+  <si>
+    <t>5号仓库</t>
+  </si>
+  <si>
+    <t>6号仓库</t>
+  </si>
+  <si>
+    <t>7号仓库</t>
+  </si>
+  <si>
+    <t>仓库与组(角色)对应表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有可设置权限的对象表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_BeiZhu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,31 +254,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关闭软件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>管理员权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全局配置权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人配置权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用ID</t>
+    <t>MainForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MainForm.MainForm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -318,13 +348,13 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -629,114 +659,111 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L60"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="11.75" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
     <col min="6" max="6" width="10.25" customWidth="1"/>
+    <col min="8" max="8" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
       <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>7</v>
-      </c>
       <c r="K2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -750,9 +777,8 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -766,9 +792,8 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -782,9 +807,8 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -798,9 +822,8 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -814,97 +837,75 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -916,7 +917,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -927,8 +928,11 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -940,7 +944,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -952,7 +956,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -964,282 +968,370 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
-      </c>
-      <c r="F31" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1</v>
       </c>
-      <c r="B32" s="4">
-        <v>1</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="2">
         <v>2</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="2">
         <v>3</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B35" s="4">
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
         <v>4</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B36" s="4">
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
         <v>5</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B41" s="4"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="3"/>
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B55" s="2">
+        <v>1</v>
+      </c>
+      <c r="C55" s="2">
+        <v>1</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2</v>
+      </c>
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B57" s="2">
+        <v>1</v>
+      </c>
+      <c r="C57" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
+        <v>2</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
+        <v>2</v>
+      </c>
+      <c r="C59" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="3"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A29:L29"/>
+  <mergeCells count="6">
+    <mergeCell ref="A61:K61"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A14:K14"/>
+    <mergeCell ref="A29:K29"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A52:K52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/重制权限管理模块.xlsx
+++ b/重制权限管理模块.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>系统菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认仓库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -659,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -674,11 +678,11 @@
     <col min="6" max="6" width="10.25" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="9" max="9" width="12.625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="12.5" customWidth="1"/>
+    <col min="10" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -692,8 +696,9 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L1" s="4"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -725,10 +730,13 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -759,11 +767,12 @@
       <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -777,8 +786,9 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" s="1"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -792,8 +802,9 @@
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" s="1"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -807,8 +818,9 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" s="1"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -822,8 +834,9 @@
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -837,28 +850,29 @@
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>37</v>
       </c>
@@ -872,8 +886,9 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
@@ -889,7 +904,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>1</v>
       </c>
@@ -905,7 +920,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -917,7 +932,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>2</v>
       </c>
@@ -932,7 +947,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -944,7 +959,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -956,7 +971,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>5</v>
       </c>
@@ -968,32 +983,32 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1007,8 +1022,9 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1032,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>1</v>
       </c>
@@ -1033,7 +1049,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>1</v>
       </c>
@@ -1050,7 +1066,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1062,7 +1078,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1072,41 +1088,41 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B35" s="2">
         <v>4</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B36" s="2">
         <v>5</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -1120,8 +1136,9 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1133,7 +1150,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>1</v>
       </c>
@@ -1145,61 +1162,61 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
         <v>44</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
         <v>46</v>
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
         <v>48</v>
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -1213,8 +1230,9 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="4"/>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1226,7 +1244,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>1</v>
       </c>
@@ -1238,7 +1256,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>1</v>
       </c>
@@ -1247,7 +1265,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>1</v>
       </c>
@@ -1256,7 +1274,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>1</v>
       </c>
@@ -1264,7 +1282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>2</v>
       </c>
@@ -1272,7 +1290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>2</v>
       </c>
@@ -1280,11 +1298,11 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:11" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>53</v>
       </c>
@@ -1298,8 +1316,9 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="4"/>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1332,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>1</v>
       </c>
@@ -1326,12 +1345,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A61:K61"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A14:K14"/>
-    <mergeCell ref="A29:K29"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A61:L61"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A41:L41"/>
+    <mergeCell ref="A52:L52"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/重制权限管理模块.xlsx
+++ b/重制权限管理模块.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -267,6 +267,10 @@
   </si>
   <si>
     <t>默认仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_CangKu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -665,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -767,7 +771,9 @@
       <c r="J3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="1"/>
+      <c r="K3" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="L3" s="1" t="s">
         <v>34</v>
       </c>

--- a/重制权限管理模块.xlsx
+++ b/重制权限管理模块.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,10 +160,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Group_Rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>组表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -271,6 +267,18 @@
   </si>
   <si>
     <t>User_CangKu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_Rule_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,8 +677,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,7 +742,7 @@
         <v>5</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
@@ -772,7 +780,7 @@
         <v>33</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>34</v>
@@ -880,7 +888,7 @@
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="4"/>
@@ -901,10 +909,12 @@
       <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -917,10 +927,12 @@
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1"/>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -950,7 +962,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.15">
@@ -1046,13 +1058,13 @@
         <v>24</v>
       </c>
       <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
         <v>58</v>
-      </c>
-      <c r="D31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.15">
@@ -1063,13 +1075,13 @@
         <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" t="s">
         <v>61</v>
-      </c>
-      <c r="E32" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
@@ -1080,7 +1092,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="2"/>
     </row>
@@ -1130,7 +1142,7 @@
     </row>
     <row r="41" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="4"/>
@@ -1152,7 +1164,7 @@
         <v>23</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D42" s="2"/>
     </row>
@@ -1161,59 +1173,59 @@
         <v>1</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D50" s="2"/>
     </row>
@@ -1224,7 +1236,7 @@
     </row>
     <row r="52" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="4"/>
@@ -1243,10 +1255,10 @@
         <v>2</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="D53" s="2"/>
     </row>
@@ -1258,7 +1270,7 @@
         <v>35</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D54" s="2"/>
     </row>
@@ -1310,7 +1322,7 @@
     </row>
     <row r="61" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="4"/>
@@ -1329,13 +1341,13 @@
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
         <v>56</v>
-      </c>
-      <c r="D62" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.15">
@@ -1343,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" t="s">
         <v>54</v>
-      </c>
-      <c r="C63" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/重制权限管理模块.xlsx
+++ b/重制权限管理模块.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="118">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -279,6 +280,197 @@
   </si>
   <si>
     <t>Group_Rule_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User_Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthUsers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthGroups</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthRules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色对应权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthGr2Ru</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_Rule_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alwcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级管理员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ru3</t>
+  </si>
+  <si>
+    <t>ru4</t>
+  </si>
+  <si>
+    <t>ru5</t>
+  </si>
+  <si>
+    <t>ru6</t>
+  </si>
+  <si>
+    <t>ru7</t>
+  </si>
+  <si>
+    <t>ru8</t>
+  </si>
+  <si>
+    <t>ru9</t>
+  </si>
+  <si>
+    <t>ru10</t>
+  </si>
+  <si>
+    <t>ru11</t>
+  </si>
+  <si>
+    <t>ru2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rule_Item_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限对应控件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthRu2It</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色对应仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthGr2Ca</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_CangKu_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CangKu_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CangKu_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有仓库表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthCangKu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +525,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -357,11 +555,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -369,6 +576,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -677,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1374,4 +1602,632 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17:N17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="15.375" customWidth="1"/>
+    <col min="9" max="10" width="20.375" customWidth="1"/>
+    <col min="13" max="13" width="18.625" customWidth="1"/>
+    <col min="14" max="14" width="15.625" customWidth="1"/>
+    <col min="18" max="18" width="11.625" customWidth="1"/>
+    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="22" max="22" width="13.875" customWidth="1"/>
+    <col min="27" max="27" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="6"/>
+      <c r="L1" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="P1" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="U1" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="12"/>
+      <c r="L2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="P2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="U2" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="V3" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="L5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="F6" s="1">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="L6" s="1">
+        <v>3</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="F7" s="1">
+        <v>4</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="L7" s="1">
+        <v>4</v>
+      </c>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="P8" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="L9" s="1">
+        <v>6</v>
+      </c>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="P9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="L10" s="1">
+        <v>7</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="P10" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="L11" s="1">
+        <v>8</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="P11" s="1">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="W11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="L12" s="1">
+        <v>9</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="P12" s="1">
+        <v>9</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="L13" s="1">
+        <v>10</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="P13" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="L14" s="1">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="P14" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="P17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L18" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="P18" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="N19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q19" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="R19" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L21" s="1"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+    </row>
+    <row r="25" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+    </row>
+    <row r="26" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+    </row>
+    <row r="27" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+    </row>
+    <row r="28" spans="12:18" x14ac:dyDescent="0.15">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="L2:N2"/>
+    <mergeCell ref="L1:N1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/重制权限管理模块.xlsx
+++ b/重制权限管理模块.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -471,6 +471,58 @@
   </si>
   <si>
     <t>AuthCangKu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色对应菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthGr2Me</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Group_Menu_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu_UpItemID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Menu_BeiZhu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有菜单表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthMenus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口控件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthItems</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,28 +624,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -923,20 +975,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
@@ -1115,20 +1167,20 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
@@ -1255,20 +1307,20 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
@@ -1369,20 +1421,20 @@
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
@@ -1463,20 +1515,20 @@
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="3"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="9"/>
+      <c r="K52" s="9"/>
+      <c r="L52" s="9"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
@@ -1549,20 +1601,20 @@
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B61" s="3"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
@@ -1606,10 +1658,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17:N17"/>
+      <selection activeCell="Y2" sqref="Y2:AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1622,138 +1674,149 @@
     <col min="13" max="13" width="18.625" customWidth="1"/>
     <col min="14" max="14" width="15.625" customWidth="1"/>
     <col min="18" max="18" width="11.625" customWidth="1"/>
-    <col min="19" max="19" width="12.875" customWidth="1"/>
+    <col min="19" max="19" width="14.625" customWidth="1"/>
+    <col min="20" max="20" width="12.25" customWidth="1"/>
     <col min="22" max="22" width="13.875" customWidth="1"/>
     <col min="27" max="27" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="6"/>
-      <c r="L1" s="7" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="4"/>
+      <c r="L1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="P1" s="7" t="s">
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="P1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="U1" s="7" t="s">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="U1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="Y1" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="F2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="12"/>
-      <c r="L2" s="8" t="s">
+      <c r="J2" s="7"/>
+      <c r="L2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="P2" s="7" t="s">
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="P2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="U2" s="9" t="s">
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="U2" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="V2" s="9"/>
-      <c r="W2" s="9"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="Y2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q3" s="5" t="s">
+      <c r="P3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="U3" s="5" t="s">
+      <c r="U3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="V3" s="5" t="s">
+      <c r="V3" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="W3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="Y3" s="5" t="s">
+      <c r="Y3" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="Z3" s="5" t="s">
+      <c r="Z3" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="AA3" s="5" t="s">
+      <c r="AA3" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2093,51 +2156,51 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="17" spans="12:18" x14ac:dyDescent="0.15">
-      <c r="L17" s="7" t="s">
+    <row r="17" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L17" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="P17" s="7" t="s">
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="P17" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-    </row>
-    <row r="18" spans="12:18" x14ac:dyDescent="0.15">
-      <c r="L18" s="7" t="s">
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L18" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="P18" s="8" t="s">
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="P18" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="Q18" s="8"/>
-      <c r="R18" s="8"/>
-    </row>
-    <row r="19" spans="12:18" x14ac:dyDescent="0.15">
-      <c r="L19" s="10" t="s">
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+    </row>
+    <row r="19" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="M19" s="10" t="s">
+      <c r="M19" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="N19" s="10" t="s">
+      <c r="N19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="Q19" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="R19" s="10" t="s">
+      <c r="R19" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="20" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -2145,15 +2208,15 @@
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
     </row>
-    <row r="21" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="21" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L21" s="1"/>
-      <c r="M21" s="11"/>
+      <c r="M21" s="6"/>
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
     </row>
-    <row r="22" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="22" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -2161,7 +2224,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
     </row>
-    <row r="23" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="23" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -2169,7 +2232,7 @@
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
     </row>
-    <row r="24" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="24" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -2177,7 +2240,7 @@
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
     </row>
-    <row r="25" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="25" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -2185,7 +2248,7 @@
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
     </row>
-    <row r="26" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="26" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -2193,7 +2256,7 @@
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
     </row>
-    <row r="27" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="27" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -2201,7 +2264,7 @@
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
     </row>
-    <row r="28" spans="12:18" x14ac:dyDescent="0.15">
+    <row r="28" spans="12:20" x14ac:dyDescent="0.15">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -2209,14 +2272,108 @@
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
     </row>
+    <row r="30" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L30" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="P30" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L31" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="P31" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L32" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="N32" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q32" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="T32" s="5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="L18:N18"/>
-    <mergeCell ref="L17:N17"/>
-    <mergeCell ref="P18:R18"/>
-    <mergeCell ref="P17:R17"/>
+  <mergeCells count="20">
+    <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="P31:T31"/>
+    <mergeCell ref="P30:T30"/>
+    <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="A1:D1"/>
@@ -2225,6 +2382,12 @@
     <mergeCell ref="P1:S1"/>
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="P18:R18"/>
+    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/重制权限管理模块.xlsx
+++ b/重制权限管理模块.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="133">
   <si>
     <t>用户表</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -523,6 +523,14 @@
   </si>
   <si>
     <t>AuthItems</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排除控件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthItemsNo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1661,7 +1669,7 @@
   <dimension ref="A1:AA36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:AA2"/>
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2156,7 +2164,7 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="17" spans="12:20" x14ac:dyDescent="0.15">
+    <row r="17" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L17" s="11" t="s">
         <v>112</v>
       </c>
@@ -2167,8 +2175,13 @@
       </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
-    </row>
-    <row r="18" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y17" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z17" s="11"/>
+      <c r="AA17" s="11"/>
+    </row>
+    <row r="18" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L18" s="11" t="s">
         <v>111</v>
       </c>
@@ -2179,8 +2192,13 @@
       </c>
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
-    </row>
-    <row r="19" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y18" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+    </row>
+    <row r="19" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L19" s="5" t="s">
         <v>73</v>
       </c>
@@ -2199,80 +2217,116 @@
       <c r="R19" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="20" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y19" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA19" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L21" s="1"/>
       <c r="M21" s="6"/>
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
-    </row>
-    <row r="23" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
-    </row>
-    <row r="24" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
-    </row>
-    <row r="25" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
-    </row>
-    <row r="26" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
-    </row>
-    <row r="27" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+    </row>
+    <row r="27" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
-    </row>
-    <row r="28" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+    </row>
+    <row r="28" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-    </row>
-    <row r="30" spans="12:20" x14ac:dyDescent="0.15">
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1"/>
+    </row>
+    <row r="30" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L30" s="11" t="s">
         <v>119</v>
       </c>
@@ -2286,7 +2340,7 @@
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
     </row>
-    <row r="31" spans="12:20" x14ac:dyDescent="0.15">
+    <row r="31" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L31" s="11" t="s">
         <v>118</v>
       </c>
@@ -2300,7 +2354,7 @@
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
     </row>
-    <row r="32" spans="12:20" x14ac:dyDescent="0.15">
+    <row r="32" spans="12:27" x14ac:dyDescent="0.15">
       <c r="L32" s="5" t="s">
         <v>1</v>
       </c>
@@ -2367,8 +2421,10 @@
       <c r="T36" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="22">
     <mergeCell ref="Y1:AA1"/>
+    <mergeCell ref="Y18:AA18"/>
+    <mergeCell ref="Y17:AA17"/>
     <mergeCell ref="L31:N31"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="P31:T31"/>
